--- a/bdd_excel/Mecaniques_pref.xlsx
+++ b/bdd_excel/Mecaniques_pref.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucap\Desktop\Ecole\ENSEIRB\S7\SGBD\Projet\BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianbour/Desktop/ENSEIRB/2A/SGBD/sgbd-jeux/bdd_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1651738B-7A6F-4905-B8B9-6A60FC9EF535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA89FF6-EB39-5549-A794-47262ED2B572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6734DE3D-A6CA-466F-AC8D-1D3844AB0D13}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10300" xr2:uid="{6734DE3D-A6CA-466F-AC8D-1D3844AB0D13}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Dico">Feuil1!$D:$D</definedName>
+    <definedName name="Dico">Feuil1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -393,19 +393,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE51C6D-A579-495F-A1C1-312F127C8C2B}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H147" sqref="H147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -413,7 +412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -421,7 +420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -429,7 +428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>15</v>
       </c>
@@ -437,7 +436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>14</v>
       </c>
@@ -445,7 +444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>16</v>
       </c>
@@ -453,7 +452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -461,7 +460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -469,7 +468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>17</v>
       </c>
@@ -477,7 +476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>19</v>
       </c>
@@ -485,7 +484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -493,7 +492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>14</v>
       </c>
@@ -501,7 +500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -509,7 +508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -517,7 +516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -525,7 +524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -533,7 +532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9</v>
       </c>
@@ -541,7 +540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>19</v>
       </c>
@@ -549,7 +548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -557,7 +556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -565,7 +564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -573,7 +572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>15</v>
       </c>
@@ -581,7 +580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -589,7 +588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -597,7 +596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -605,7 +604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -613,7 +612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -621,7 +620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>15</v>
       </c>
@@ -629,7 +628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -637,7 +636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -645,7 +644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>11</v>
       </c>
@@ -653,7 +652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>12</v>
       </c>
@@ -661,7 +660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>9</v>
       </c>
@@ -669,7 +668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5</v>
       </c>
@@ -677,7 +676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -685,7 +684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -693,7 +692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>17</v>
       </c>
@@ -701,7 +700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -709,7 +708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>6</v>
       </c>
@@ -717,7 +716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>14</v>
       </c>
@@ -725,7 +724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -733,7 +732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>14</v>
       </c>
@@ -741,7 +740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4</v>
       </c>
@@ -749,7 +748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>18</v>
       </c>
@@ -757,7 +756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>9</v>
       </c>
@@ -765,7 +764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>11</v>
       </c>
@@ -773,7 +772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>9</v>
       </c>
@@ -781,7 +780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>15</v>
       </c>
@@ -789,7 +788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>15</v>
       </c>
@@ -797,7 +796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4</v>
       </c>
@@ -805,7 +804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>7</v>
       </c>
@@ -813,7 +812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>11</v>
       </c>
@@ -821,7 +820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>16</v>
       </c>
@@ -829,7 +828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>18</v>
       </c>
@@ -837,7 +836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>16</v>
       </c>
@@ -845,7 +844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>10</v>
       </c>
@@ -853,7 +852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5</v>
       </c>
@@ -861,7 +860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>18</v>
       </c>
@@ -869,7 +868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>9</v>
       </c>
@@ -877,7 +876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>19</v>
       </c>
@@ -885,7 +884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>8</v>
       </c>
@@ -893,7 +892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3</v>
       </c>
@@ -901,7 +900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5</v>
       </c>
@@ -909,7 +908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>11</v>
       </c>
@@ -917,7 +916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>9</v>
       </c>
@@ -925,7 +924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4</v>
       </c>
@@ -933,7 +932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>5</v>
       </c>
@@ -941,7 +940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>14</v>
       </c>
@@ -949,7 +948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>9</v>
       </c>
@@ -957,7 +956,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2</v>
       </c>
@@ -965,7 +964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1</v>
       </c>
@@ -973,7 +972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7</v>
       </c>
@@ -981,7 +980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>11</v>
       </c>
@@ -989,7 +988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>12</v>
       </c>
@@ -997,7 +996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>6</v>
       </c>
@@ -1005,7 +1004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>9</v>
       </c>
@@ -1013,7 +1012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3</v>
       </c>
@@ -1021,7 +1020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>9</v>
       </c>
@@ -1029,7 +1028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>14</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>11</v>
       </c>
@@ -1045,7 +1044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>8</v>
       </c>
@@ -1053,7 +1052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>16</v>
       </c>
@@ -1061,7 +1060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>17</v>
       </c>
@@ -1069,7 +1068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>19</v>
       </c>
@@ -1077,7 +1076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>5</v>
       </c>
@@ -1085,7 +1084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3</v>
       </c>
@@ -1093,7 +1092,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2</v>
       </c>
@@ -1101,7 +1100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>5</v>
       </c>
@@ -1109,7 +1108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>15</v>
       </c>
@@ -1117,7 +1116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>10</v>
       </c>
@@ -1125,7 +1124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>11</v>
       </c>
@@ -1133,7 +1132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>6</v>
       </c>
@@ -1141,7 +1140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>5</v>
       </c>
@@ -1149,7 +1148,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>6</v>
       </c>
@@ -1157,7 +1156,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>6</v>
       </c>
@@ -1165,7 +1164,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>16</v>
       </c>
@@ -1181,7 +1180,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>17</v>
       </c>
@@ -1189,7 +1188,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>10</v>
       </c>
@@ -1197,7 +1196,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>15</v>
       </c>
@@ -1205,7 +1204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>12</v>
       </c>
@@ -1213,7 +1212,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>13</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4</v>
       </c>
@@ -1229,7 +1228,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>7</v>
       </c>
@@ -1237,7 +1236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>19</v>
       </c>
@@ -1245,7 +1244,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1</v>
       </c>
@@ -1253,7 +1252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>13</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>9</v>
       </c>
@@ -1269,7 +1268,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2</v>
       </c>
@@ -1277,7 +1276,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>6</v>
       </c>
@@ -1285,7 +1284,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>11</v>
       </c>
@@ -1293,7 +1292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>15</v>
       </c>
@@ -1301,7 +1300,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>13</v>
       </c>
@@ -1309,7 +1308,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>14</v>
       </c>
@@ -1317,7 +1316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>11</v>
       </c>
@@ -1325,7 +1324,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2</v>
       </c>
@@ -1333,7 +1332,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>17</v>
       </c>
@@ -1341,7 +1340,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>18</v>
       </c>
@@ -1349,7 +1348,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>14</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>13</v>
       </c>
@@ -1365,7 +1364,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>12</v>
       </c>
@@ -1373,7 +1372,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>4</v>
       </c>
@@ -1381,7 +1380,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>5</v>
       </c>
@@ -1389,7 +1388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>12</v>
       </c>
@@ -1397,7 +1396,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>19</v>
       </c>
@@ -1405,7 +1404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2</v>
       </c>
@@ -1413,7 +1412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>14</v>
       </c>
@@ -1421,7 +1420,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>8</v>
       </c>
@@ -1429,7 +1428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>17</v>
       </c>
@@ -1437,7 +1436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>15</v>
       </c>
@@ -1445,7 +1444,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1</v>
       </c>
@@ -1453,7 +1452,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>6</v>
       </c>
@@ -1461,7 +1460,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>13</v>
       </c>
@@ -1469,7 +1468,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>9</v>
       </c>
@@ -1477,7 +1476,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>3</v>
       </c>
@@ -1485,7 +1484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>3</v>
       </c>
@@ -1493,7 +1492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>14</v>
       </c>
@@ -1501,1315 +1500,1307 @@
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B138">
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B139">
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B140">
         <v>47</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B141">
         <v>47</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B142">
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B143">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B144">
         <v>48</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
+        <v>2</v>
+      </c>
+      <c r="B145">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146">
         <v>3</v>
-      </c>
-      <c r="B145">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146">
-        <v>2</v>
       </c>
       <c r="B146">
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B147">
         <v>49</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B148">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B149">
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B150">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B151">
         <v>51</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B152">
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>12</v>
       </c>
       <c r="B153">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B154">
         <v>52</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B155">
         <v>52</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B156">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B157">
         <v>53</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B158">
         <v>53</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B159">
         <v>53</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B160">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B161">
         <v>54</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B162">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B163">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B164">
         <v>56</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B165">
         <v>56</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B166">
         <v>56</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B167">
         <v>56</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B168">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>10</v>
       </c>
       <c r="B169">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B170">
         <v>58</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B171">
         <v>58</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B172">
         <v>58</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B173">
         <v>58</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B174">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B175">
         <v>59</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B176">
         <v>59</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B177">
         <v>59</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B178">
         <v>59</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B179">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B180">
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B181">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B182">
         <v>61</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B183">
         <v>61</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B184">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B185">
         <v>62</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B186">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B187">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
+        <v>5</v>
+      </c>
+      <c r="B188">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189">
         <v>19</v>
-      </c>
-      <c r="B188">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189">
-        <v>5</v>
       </c>
       <c r="B189">
         <v>65</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B190">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B191">
         <v>66</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B192">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B193">
         <v>67</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B194">
         <v>67</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B195">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B196">
         <v>68</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B197">
         <v>68</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B198">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B199">
         <v>69</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B200">
         <v>69</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201">
+        <v>8</v>
+      </c>
+      <c r="B201">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>10</v>
+      </c>
+      <c r="B202">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>7</v>
+      </c>
+      <c r="B203">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>12</v>
+      </c>
+      <c r="B204">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205">
         <v>16</v>
-      </c>
-      <c r="B201">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202">
-        <v>8</v>
-      </c>
-      <c r="B202">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203">
-        <v>10</v>
-      </c>
-      <c r="B203">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204">
-        <v>7</v>
-      </c>
-      <c r="B204">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205">
-        <v>12</v>
       </c>
       <c r="B205">
         <v>73</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B206">
         <v>73</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B207">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B208">
         <v>74</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B209">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B210">
         <v>75</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B211">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B212">
         <v>76</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B213">
         <v>76</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B214">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B215">
         <v>77</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216">
+        <v>19</v>
+      </c>
+      <c r="B216">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217">
         <v>12</v>
       </c>
-      <c r="B216">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217">
-        <v>19</v>
-      </c>
       <c r="B217">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B218">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B219">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B220">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B221">
         <v>82</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B222">
         <v>82</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B223">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B224">
         <v>83</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B225">
         <v>83</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226">
+        <v>11</v>
+      </c>
+      <c r="B226">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227">
         <v>13</v>
       </c>
-      <c r="B226">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227">
-        <v>11</v>
-      </c>
       <c r="B227">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B228">
         <v>85</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>8</v>
       </c>
       <c r="B229">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B230">
         <v>86</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B231">
         <v>86</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B232">
         <v>86</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B233">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B234">
         <v>87</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B235">
         <v>87</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>14</v>
       </c>
       <c r="B236">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B237">
         <v>88</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B238">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B239">
         <v>89</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B240">
         <v>89</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>11</v>
       </c>
       <c r="B241">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B242">
         <v>90</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B243">
         <v>90</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B244">
         <v>90</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B245">
         <v>90</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B246">
         <v>90</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B247">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B248">
         <v>91</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B249">
         <v>91</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>12</v>
       </c>
       <c r="B250">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B251">
         <v>92</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B252">
         <v>92</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>14</v>
       </c>
       <c r="B253">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B254">
         <v>93</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B255">
         <v>93</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B256">
         <v>93</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B257">
         <v>93</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B258">
         <v>93</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B259">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B260">
         <v>94</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B261">
         <v>94</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B262">
         <v>94</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B263">
         <v>94</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B264">
         <v>94</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B265">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B266">
         <v>95</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>11</v>
       </c>
       <c r="B267">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B268">
         <v>96</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B269">
         <v>96</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B270">
         <v>96</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B271">
         <v>96</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B272">
         <v>96</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B273">
         <v>96</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B274">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B275">
         <v>97</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B276">
         <v>97</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B277">
         <v>97</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B278">
         <v>97</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B279">
         <v>97</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B280">
         <v>97</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B281">
         <v>97</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B282">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B283">
         <v>98</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B284">
         <v>98</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B285">
         <v>98</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B286">
         <v>98</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B287">
         <v>98</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B288">
         <v>98</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B289">
         <v>98</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B290">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B291">
         <v>99</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B292">
         <v>99</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B293">
         <v>99</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B294">
         <v>99</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B295">
         <v>99</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B296">
         <v>99</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>10</v>
       </c>
       <c r="B297">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B298">
         <v>100</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B299">
         <v>100</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B300">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A301">
-        <v>5</v>
-      </c>
-      <c r="B301">
         <v>100</v>
       </c>
     </row>
